--- a/target/test-classes/TestData.xlsx
+++ b/target/test-classes/TestData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{2AAEEACE-2F73-4B51-9D78-5D71185DE477}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{4E307C0C-F297-4FCE-B191-BCD1EE202314}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="20790" windowHeight="11820" xr2:uid="{DDE6FD94-C72F-4F23-85E5-D9FFD439D69A}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="20790" windowHeight="11820" xr2:uid="{DDE6FD94-C72F-4F23-85E5-D9FFD439D69A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
   <si>
     <t>nome</t>
   </si>
@@ -32,7 +32,10 @@
     <t>Cadastro02</t>
   </si>
   <si>
-    <t>Senha02</t>
+    <t>NomeInvalido</t>
+  </si>
+  <si>
+    <t>SenhaInvalida</t>
   </si>
 </sst>
 </file>
@@ -401,10 +404,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED124132-39AE-49D1-AFB8-E538B9A893C2}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -426,7 +429,15 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
